--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H2">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I2">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J2">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>577.3954378012263</v>
+        <v>159.3964271360302</v>
       </c>
       <c r="R2">
-        <v>5196.558940211037</v>
+        <v>1434.567844224272</v>
       </c>
       <c r="S2">
-        <v>0.05331840745541452</v>
+        <v>0.009437648871001066</v>
       </c>
       <c r="T2">
-        <v>0.05331840745541453</v>
+        <v>0.009437648871001065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H3">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I3">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J3">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>8260.321082130091</v>
+        <v>13909.22903329245</v>
       </c>
       <c r="R3">
-        <v>74342.88973917082</v>
+        <v>125183.0612996321</v>
       </c>
       <c r="S3">
-        <v>0.7627825513252218</v>
+        <v>0.8235468136969</v>
       </c>
       <c r="T3">
-        <v>0.7627825513252219</v>
+        <v>0.8235468136968997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H4">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I4">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J4">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>1263.56693501531</v>
+        <v>2127.67054976163</v>
       </c>
       <c r="R4">
-        <v>11372.1024151378</v>
+        <v>19149.03494785467</v>
       </c>
       <c r="S4">
-        <v>0.116681518899581</v>
+        <v>0.1259765223262091</v>
       </c>
       <c r="T4">
-        <v>0.116681518899581</v>
+        <v>0.125976522326209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.403932</v>
       </c>
       <c r="I5">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J5">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>2.838539719334667</v>
+        <v>0.4653653895413333</v>
       </c>
       <c r="R5">
-        <v>25.546857474012</v>
+        <v>4.188288505871999</v>
       </c>
       <c r="S5">
-        <v>0.0002621191776474794</v>
+        <v>2.755366115866327E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002621191776474794</v>
+        <v>2.755366115866326E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.403932</v>
       </c>
       <c r="I6">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J6">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
-        <v>40.60865041707467</v>
+        <v>40.60865041707466</v>
       </c>
       <c r="R6">
-        <v>365.477853753672</v>
+        <v>365.4778537536719</v>
       </c>
       <c r="S6">
-        <v>0.003749923237006009</v>
+        <v>0.002404383778530448</v>
       </c>
       <c r="T6">
-        <v>0.003749923237006009</v>
+        <v>0.002404383778530448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.403932</v>
       </c>
       <c r="I7">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J7">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
-        <v>6.211834556118668</v>
+        <v>6.211834556118667</v>
       </c>
       <c r="R7">
         <v>55.906511005068</v>
       </c>
       <c r="S7">
-        <v>0.000573619229085041</v>
+        <v>0.0003677944006572218</v>
       </c>
       <c r="T7">
-        <v>0.000573619229085041</v>
+        <v>0.0003677944006572217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.516982</v>
       </c>
       <c r="I8">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J8">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>38.769328842118</v>
+        <v>6.356051210408</v>
       </c>
       <c r="R8">
-        <v>348.9239595790621</v>
+        <v>57.20446089367201</v>
       </c>
       <c r="S8">
-        <v>0.003580074826792494</v>
+        <v>0.0003763332755177714</v>
       </c>
       <c r="T8">
-        <v>0.003580074826792494</v>
+        <v>0.0003763332755177713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.516982</v>
       </c>
       <c r="I9">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J9">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>554.6408637971081</v>
@@ -1004,10 +1004,10 @@
         <v>4991.767774173973</v>
       </c>
       <c r="S9">
-        <v>0.05121718259495134</v>
+        <v>0.03283954236664705</v>
       </c>
       <c r="T9">
-        <v>0.05121718259495134</v>
+        <v>0.03283954236664704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.516982</v>
       </c>
       <c r="I10">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J10">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>84.84244732550202</v>
@@ -1066,10 +1066,10 @@
         <v>763.5820259295182</v>
       </c>
       <c r="S10">
-        <v>0.007834603254300347</v>
+        <v>0.005023407623378888</v>
       </c>
       <c r="T10">
-        <v>0.007834603254300347</v>
+        <v>0.005023407623378887</v>
       </c>
     </row>
   </sheetData>
